--- a/NIVEL FINAL/Attempt1/TitoJavierFranciscoMiguelGaldamez/Data/Output.xlsx
+++ b/NIVEL FINAL/Attempt1/TitoJavierFranciscoMiguelGaldamez/Data/Output.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tito.miguel\repositorios\CertificationExam4\CollectWorkItems\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tito.miguel\repositorios\UiPath\NIVEL FINAL\Attempt1\TitoJavierFranciscoMiguelGaldamez\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="16425" windowHeight="10185"/>
+    <workbookView xWindow="0" yWindow="4050" windowWidth="16425" windowHeight="10185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
   <si>
     <t>WIID</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -453,7 +453,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>215355</v>
+        <v>147455</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -465,12 +465,12 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>43155</v>
+        <v>43480</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>327175</v>
+        <v>211405</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -482,12 +482,12 @@
         <v>7</v>
       </c>
       <c r="E3" s="1">
-        <v>43202</v>
+        <v>43211</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>488045</v>
+        <v>310925</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -499,12 +499,12 @@
         <v>7</v>
       </c>
       <c r="E4" s="1">
-        <v>43131</v>
+        <v>42877</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>417525</v>
+        <v>240995</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -516,7 +516,75 @@
         <v>7</v>
       </c>
       <c r="E5" s="1">
-        <v>42921</v>
+        <v>43244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>477185</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>496005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>393865</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>42775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>217285</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>42866</v>
       </c>
     </row>
   </sheetData>
